--- a/biology/Botanique/Square_Frédérick-Lemaître/Square_Frédérick-Lemaître.xlsx
+++ b/biology/Botanique/Square_Frédérick-Lemaître/Square_Frédérick-Lemaître.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Fr%C3%A9d%C3%A9rick-Lema%C3%AEtre</t>
+          <t>Square_Frédérick-Lemaître</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Frédérick-Lemaître est un espace vert du 10e arrondissement de Paris, dans les quartiers Porte-Saint-Martin et Hôpital-Saint-Louis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Fr%C3%A9d%C3%A9rick-Lema%C3%AEtre</t>
+          <t>Square_Frédérick-Lemaître</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé de part et d'autre du canal Saint-Martin, au niveau des écluses du Temple, là où le canal devient souterrain.
 Ce site est desservi par les lignes 3, 5, 8, 9 et 11 à la station République et par la ligne 11 à la station Goncourt.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Fr%C3%A9d%C3%A9rick-Lema%C3%AEtre</t>
+          <t>Square_Frédérick-Lemaître</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à Antoine Louis Prosper Lemaître, dit Frédérick Lemaître (1800-1876), un acteur français qui fut l’un des plus célèbres acteurs du Boulevard du crime.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Fr%C3%A9d%C3%A9rick-Lema%C3%AEtre</t>
+          <t>Square_Frédérick-Lemaître</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Fr%C3%A9d%C3%A9rick-Lema%C3%AEtre</t>
+          <t>Square_Frédérick-Lemaître</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au-dessus de l'ouverture du canal souterrain se trouve le buste de Frédérick Lemaître, réalisé en 1898, par Pierre Granet.
 </t>
